--- a/apidata/momentum/02-08-2023/report_02-08-2023.xlsx
+++ b/apidata/momentum/02-08-2023/report_02-08-2023.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M149"/>
+  <dimension ref="B1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-6238.349999999977</v>
+        <v>-54572.10000000009</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4654.150000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-10892.5</v>
+        <v>-54572.10000000009</v>
       </c>
     </row>
     <row r="7"/>
@@ -592,7 +592,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -602,31 +602,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IBULHSGFIN-EQ</t>
+          <t>IBULHSGFIN31AUG23C150</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30125</v>
+        <v>128846</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>5100</v>
       </c>
       <c r="H10" t="n">
-        <v>335</v>
+        <v>10200</v>
       </c>
       <c r="I10" t="n">
-        <v>149.1</v>
+        <v>8.5</v>
       </c>
       <c r="J10" t="n">
-        <v>49948.5</v>
+        <v>86700</v>
       </c>
       <c r="K10" t="n">
-        <v>-49948.5</v>
+        <v>-86700</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -647,31 +647,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OBEROIRLTY-EQ</t>
+          <t>OBEROIRLTY31AUG23C1150</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20242</v>
+        <v>137816</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="H11" t="n">
-        <v>44</v>
+        <v>2100</v>
       </c>
       <c r="I11" t="n">
-        <v>1113</v>
+        <v>44.1</v>
       </c>
       <c r="J11" t="n">
-        <v>48972</v>
+        <v>92610</v>
       </c>
       <c r="K11" t="n">
-        <v>-48972</v>
+        <v>-92610</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -692,31 +692,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ESCORTS-EQ</t>
+          <t>ESCORTS31AUG23C2660</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>958</v>
+        <v>113754</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="H12" t="n">
-        <v>19</v>
+        <v>825</v>
       </c>
       <c r="I12" t="n">
-        <v>2610.05</v>
+        <v>92.75</v>
       </c>
       <c r="J12" t="n">
-        <v>49590.95</v>
+        <v>76518.75</v>
       </c>
       <c r="K12" t="n">
-        <v>-49590.95</v>
+        <v>-76518.75</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -737,31 +737,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PVRINOX-EQ</t>
+          <t>PVRINOX31AUG23C1600</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13147</v>
+        <v>140497</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>407</v>
       </c>
       <c r="H13" t="n">
-        <v>31</v>
+        <v>1628</v>
       </c>
       <c r="I13" t="n">
-        <v>1600.25</v>
+        <v>58.45</v>
       </c>
       <c r="J13" t="n">
-        <v>49607.75</v>
+        <v>95156.60000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>-49607.75</v>
+        <v>-95156.60000000001</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -782,31 +782,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>INDIACEM-EQ</t>
+          <t>INDIACEM31AUG23C220</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1515</v>
+        <v>130332</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2900</v>
       </c>
       <c r="H14" t="n">
-        <v>226</v>
+        <v>5800</v>
       </c>
       <c r="I14" t="n">
-        <v>221</v>
+        <v>12.55</v>
       </c>
       <c r="J14" t="n">
-        <v>49946</v>
+        <v>72790</v>
       </c>
       <c r="K14" t="n">
-        <v>-49946</v>
+        <v>-72790</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -827,42 +827,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NATIONALUM-EQ</t>
+          <t>NATIONALUM31AUG23P94</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6364</v>
+        <v>136622</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>7500</v>
       </c>
       <c r="H15" t="n">
-        <v>530</v>
+        <v>30000</v>
       </c>
       <c r="I15" t="n">
-        <v>94.25</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>49952.5</v>
+        <v>96000</v>
       </c>
       <c r="K15" t="n">
-        <v>49952.5</v>
+        <v>-96000</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -872,42 +872,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TATASTEEL-EQ</t>
+          <t>TATASTEEL31AUG23P120.4</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3499</v>
+        <v>144912</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>5500</v>
       </c>
       <c r="H16" t="n">
-        <v>415</v>
+        <v>27500</v>
       </c>
       <c r="I16" t="n">
-        <v>120.35</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>49945.25</v>
+        <v>85250</v>
       </c>
       <c r="K16" t="n">
-        <v>49945.25</v>
+        <v>-85250</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -917,42 +917,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HINDPETRO-EQ</t>
+          <t>HINDPETRO31AUG23P280</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1406</v>
+        <v>128476</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2700</v>
       </c>
       <c r="H17" t="n">
-        <v>177</v>
+        <v>10800</v>
       </c>
       <c r="I17" t="n">
-        <v>281.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>49772.4</v>
+        <v>93960</v>
       </c>
       <c r="K17" t="n">
-        <v>49772.4</v>
+        <v>-93960</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -962,42 +962,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CIPLA-EQ</t>
+          <t>CIPLA31AUG23P1160</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>694</v>
+        <v>106398</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>650</v>
       </c>
       <c r="H18" t="n">
-        <v>42</v>
+        <v>3900</v>
       </c>
       <c r="I18" t="n">
-        <v>1165.3</v>
+        <v>23.85</v>
       </c>
       <c r="J18" t="n">
-        <v>48942.6</v>
+        <v>93015</v>
       </c>
       <c r="K18" t="n">
-        <v>48942.6</v>
+        <v>-93015</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1007,76 +1007,76 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CUMMINSIND-EQ</t>
+          <t>CUMMINSIND31AUG23P1900</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1901</v>
+        <v>111205</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="H19" t="n">
-        <v>26</v>
+        <v>1200</v>
       </c>
       <c r="I19" t="n">
-        <v>1893.65</v>
+        <v>63.05</v>
       </c>
       <c r="J19" t="n">
-        <v>49234.9</v>
+        <v>75660</v>
       </c>
       <c r="K19" t="n">
-        <v>49234.9</v>
+        <v>-75660</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-08-02 09:40:00</t>
+          <t>2023-08-02 10:18:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>IBULHSGFIN-EQ</t>
+          <t>OBEROIRLTY31AUG23C1150</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>30125</v>
+        <v>137816</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="H20" t="n">
-        <v>335</v>
+        <v>2100</v>
       </c>
       <c r="I20" t="n">
-        <v>151.05</v>
+        <v>37.95</v>
       </c>
       <c r="J20" t="n">
-        <v>50601.75</v>
+        <v>79695</v>
       </c>
       <c r="K20" t="n">
-        <v>50601.75</v>
+        <v>79695</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-02 09:40:00</t>
+          <t>2023-08-02 10:21:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1097,31 +1097,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PVRINOX-EQ</t>
+          <t>PVRINOX31AUG23C1600</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13147</v>
+        <v>140497</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>407</v>
       </c>
       <c r="H21" t="n">
-        <v>31</v>
+        <v>1628</v>
       </c>
       <c r="I21" t="n">
-        <v>1590.75</v>
+        <v>51.85</v>
       </c>
       <c r="J21" t="n">
-        <v>49313.25</v>
+        <v>84411.8</v>
       </c>
       <c r="K21" t="n">
-        <v>49313.25</v>
+        <v>84411.8</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1132,41 +1132,41 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-08-02 09:40:00</t>
+          <t>2023-08-02 10:33:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>INDIACEM</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>INDIACEM-EQ</t>
+          <t>IBULHSGFIN31AUG23C150</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1515</v>
+        <v>128846</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>5100</v>
       </c>
       <c r="H22" t="n">
-        <v>226</v>
+        <v>10200</v>
       </c>
       <c r="I22" t="n">
-        <v>223.35</v>
+        <v>7.2</v>
       </c>
       <c r="J22" t="n">
-        <v>50477.1</v>
+        <v>73440</v>
       </c>
       <c r="K22" t="n">
-        <v>50477.1</v>
+        <v>73440</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1177,41 +1177,41 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-08-02 09:50:00</t>
+          <t>2023-08-02 10:37:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ESCORTS</t>
+          <t>INDIACEM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ESCORTS-EQ</t>
+          <t>INDIACEM31AUG23C220</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>958</v>
+        <v>130332</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2900</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>5800</v>
       </c>
       <c r="I23" t="n">
-        <v>2654.95</v>
+        <v>11.2</v>
       </c>
       <c r="J23" t="n">
-        <v>50444.05</v>
+        <v>64960</v>
       </c>
       <c r="K23" t="n">
-        <v>50444.05</v>
+        <v>64960</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1222,41 +1222,41 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-08-02 10:00:00</t>
+          <t>2023-08-02 10:39:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>ESCORTS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>OBEROIRLTY-EQ</t>
+          <t>ESCORTS31AUG23C2660</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20242</v>
+        <v>113754</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="H24" t="n">
-        <v>44</v>
+        <v>825</v>
       </c>
       <c r="I24" t="n">
-        <v>1130.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>49755.2</v>
+        <v>73507.5</v>
       </c>
       <c r="K24" t="n">
-        <v>49755.2</v>
+        <v>73507.5</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1267,41 +1267,41 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-08-02 15:26:00</t>
+          <t>2023-08-02 11:15:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NATIONALUM-EQ</t>
+          <t>IBULHSGFIN31AUG23C147.5</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6364</v>
+        <v>128844</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>5100</v>
       </c>
       <c r="H25" t="n">
-        <v>530</v>
+        <v>10200</v>
       </c>
       <c r="I25" t="n">
-        <v>92.2</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>48866</v>
+        <v>81600</v>
       </c>
       <c r="K25" t="n">
-        <v>-48866</v>
+        <v>-81600</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1312,41 +1312,41 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-08-02 15:26:00</t>
+          <t>2023-08-02 11:15:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TATASTEEL-EQ</t>
+          <t>OBEROIRLTY31AUG23C1110</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3499</v>
+        <v>137808</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="H26" t="n">
-        <v>415</v>
+        <v>2100</v>
       </c>
       <c r="I26" t="n">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="J26" t="n">
-        <v>49385</v>
+        <v>88200</v>
       </c>
       <c r="K26" t="n">
-        <v>-49385</v>
+        <v>-88200</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1357,41 +1357,41 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-08-02 15:26:00</t>
+          <t>2023-08-02 11:15:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>ESCORTS</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HINDPETRO-EQ</t>
+          <t>ESCORTS31AUG23C2660</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1406</v>
+        <v>113754</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="H27" t="n">
-        <v>177</v>
+        <v>825</v>
       </c>
       <c r="I27" t="n">
-        <v>276.35</v>
+        <v>95</v>
       </c>
       <c r="J27" t="n">
-        <v>48913.95</v>
+        <v>78375</v>
       </c>
       <c r="K27" t="n">
-        <v>-48913.95</v>
+        <v>-78375</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1402,41 +1402,41 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-08-02 15:26:00</t>
+          <t>2023-08-02 11:15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>PVRINOX</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CIPLA-EQ</t>
+          <t>PVRINOX31AUG23C1600</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>694</v>
+        <v>140497</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>407</v>
       </c>
       <c r="H28" t="n">
-        <v>42</v>
+        <v>1221</v>
       </c>
       <c r="I28" t="n">
-        <v>1170.35</v>
+        <v>64</v>
       </c>
       <c r="J28" t="n">
-        <v>49154.7</v>
+        <v>78144</v>
       </c>
       <c r="K28" t="n">
-        <v>-49154.7</v>
+        <v>-78144</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1447,41 +1447,41 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-08-02 15:26:00</t>
+          <t>2023-08-02 11:15:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CUMMINSIND-EQ</t>
+          <t>NATIONALUM31AUG23P93</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1901</v>
+        <v>136620</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>7500</v>
       </c>
       <c r="H29" t="n">
-        <v>26</v>
+        <v>30000</v>
       </c>
       <c r="I29" t="n">
-        <v>1900</v>
+        <v>3.05</v>
       </c>
       <c r="J29" t="n">
-        <v>49400</v>
+        <v>91500</v>
       </c>
       <c r="K29" t="n">
-        <v>-49400</v>
+        <v>-91500</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1492,21 +1492,21 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 11:15:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23C147.5</t>
+          <t>TATASTEEL31AUG23P120.4</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>128844</v>
+        <v>144912</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1514,19 +1514,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="H30" t="n">
-        <v>5100</v>
+        <v>27500</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>3.15</v>
       </c>
       <c r="J30" t="n">
-        <v>40800</v>
+        <v>86625</v>
       </c>
       <c r="K30" t="n">
-        <v>-40800</v>
+        <v>-86625</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 11:31:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1547,11 +1547,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23C1100</t>
+          <t>OBEROIRLTY31AUG23C1110</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>137806</v>
+        <v>137808</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1562,27 +1562,27 @@
         <v>700</v>
       </c>
       <c r="H31" t="n">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="I31" t="n">
-        <v>45.85</v>
+        <v>36.9</v>
       </c>
       <c r="J31" t="n">
-        <v>32095</v>
+        <v>77490</v>
       </c>
       <c r="K31" t="n">
-        <v>-32095</v>
+        <v>77490</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 11:32:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ESCORTS31AUG23C2620</t>
+          <t>ESCORTS31AUG23C2660</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>113750</v>
+        <v>113754</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1607,27 +1607,27 @@
         <v>275</v>
       </c>
       <c r="H32" t="n">
-        <v>275</v>
+        <v>825</v>
       </c>
       <c r="I32" t="n">
-        <v>91.5</v>
+        <v>93</v>
       </c>
       <c r="J32" t="n">
-        <v>25162.5</v>
+        <v>76725</v>
       </c>
       <c r="K32" t="n">
-        <v>-25162.5</v>
+        <v>76725</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 11:56:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1652,20 +1652,20 @@
         <v>407</v>
       </c>
       <c r="H33" t="n">
-        <v>407</v>
+        <v>1221</v>
       </c>
       <c r="I33" t="n">
-        <v>62.5</v>
+        <v>60.15</v>
       </c>
       <c r="J33" t="n">
-        <v>25437.5</v>
+        <v>73443.14999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-25437.5</v>
+        <v>73443.14999999999</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1677,16 +1677,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P93</t>
+          <t>IBULHSGFIN31AUG23C147.5</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>136620</v>
+        <v>128844</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>7500</v>
+        <v>5100</v>
       </c>
       <c r="H34" t="n">
-        <v>15000</v>
+        <v>10200</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>45000</v>
+        <v>81600</v>
       </c>
       <c r="K34" t="n">
-        <v>-45000</v>
+        <v>-81600</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1722,16 +1722,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TATASTEEL31AUG23P120</t>
+          <t>OBEROIRLTY31AUG23C1100</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>84828</v>
+        <v>137806</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1739,19 +1739,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5500</v>
+        <v>700</v>
       </c>
       <c r="H35" t="n">
-        <v>11000</v>
+        <v>2100</v>
       </c>
       <c r="I35" t="n">
-        <v>3.2</v>
+        <v>45.85</v>
       </c>
       <c r="J35" t="n">
-        <v>35200</v>
+        <v>96285</v>
       </c>
       <c r="K35" t="n">
-        <v>-35200</v>
+        <v>-96285</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1767,16 +1767,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>ESCORTS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P275</t>
+          <t>ESCORTS31AUG23C2620</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>128472</v>
+        <v>113750</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1784,19 +1784,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2700</v>
+        <v>275</v>
       </c>
       <c r="H36" t="n">
-        <v>5400</v>
+        <v>825</v>
       </c>
       <c r="I36" t="n">
-        <v>8.4</v>
+        <v>91.5</v>
       </c>
       <c r="J36" t="n">
-        <v>45360</v>
+        <v>75487.5</v>
       </c>
       <c r="K36" t="n">
-        <v>-45360</v>
+        <v>-75487.5</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1807,21 +1807,21 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 12:33:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>ESCORTS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CIPLA31AUG23P1160</t>
+          <t>ESCORTS31AUG23C2620</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>106398</v>
+        <v>113750</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1829,44 +1829,44 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>650</v>
+        <v>275</v>
       </c>
       <c r="H37" t="n">
-        <v>1950</v>
+        <v>825</v>
       </c>
       <c r="I37" t="n">
-        <v>25.5</v>
+        <v>86</v>
       </c>
       <c r="J37" t="n">
-        <v>49725</v>
+        <v>70950</v>
       </c>
       <c r="K37" t="n">
-        <v>-49725</v>
+        <v>70950</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 13:15:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>PVRINOX</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CUMMINSIND31AUG23P1900</t>
+          <t>PVRINOX31AUG23C1600</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>111205</v>
+        <v>140497</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1874,19 +1874,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>600</v>
+        <v>407</v>
       </c>
       <c r="H38" t="n">
-        <v>600</v>
+        <v>1221</v>
       </c>
       <c r="I38" t="n">
-        <v>63.9</v>
+        <v>68.25</v>
       </c>
       <c r="J38" t="n">
-        <v>38340</v>
+        <v>83333.25</v>
       </c>
       <c r="K38" t="n">
-        <v>-38340</v>
+        <v>-83333.25</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1897,21 +1897,21 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-08-02 12:16:00</t>
+          <t>2023-08-02 13:25:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>IBULHSGFIN</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>IBULHSGFIN31AUG23C147.5</t>
+          <t>OBEROIRLTY31AUG23C1100</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>128844</v>
+        <v>137806</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1919,19 +1919,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5100</v>
+        <v>700</v>
       </c>
       <c r="H39" t="n">
-        <v>5100</v>
+        <v>2100</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>42.05</v>
       </c>
       <c r="J39" t="n">
-        <v>40800</v>
+        <v>88305</v>
       </c>
       <c r="K39" t="n">
-        <v>40800</v>
+        <v>88305</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1942,21 +1942,21 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-08-02 12:16:00</t>
+          <t>2023-08-02 13:46:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>PVRINOX</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23C1100</t>
+          <t>PVRINOX31AUG23C1600</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>137806</v>
+        <v>140497</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>700</v>
+        <v>407</v>
       </c>
       <c r="H40" t="n">
-        <v>700</v>
+        <v>1221</v>
       </c>
       <c r="I40" t="n">
-        <v>45.85</v>
+        <v>61.55</v>
       </c>
       <c r="J40" t="n">
-        <v>32095</v>
+        <v>75152.55</v>
       </c>
       <c r="K40" t="n">
-        <v>32095</v>
+        <v>75152.55</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1987,21 +1987,21 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-08-02 12:16:00</t>
+          <t>2023-08-02 14:15:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ESCORTS</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ESCORTS31AUG23C2620</t>
+          <t>NATIONALUM31AUG23P92</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>113750</v>
+        <v>136618</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2009,44 +2009,44 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>275</v>
+        <v>7500</v>
       </c>
       <c r="H41" t="n">
-        <v>275</v>
+        <v>30000</v>
       </c>
       <c r="I41" t="n">
-        <v>91</v>
+        <v>3.25</v>
       </c>
       <c r="J41" t="n">
-        <v>25025</v>
+        <v>97500</v>
       </c>
       <c r="K41" t="n">
-        <v>25025</v>
+        <v>-97500</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-08-02 12:16:00</t>
+          <t>2023-08-02 14:15:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PVRINOX</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PVRINOX31AUG23C1600</t>
+          <t>TATASTEEL31AUG23P118.4</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>140497</v>
+        <v>144908</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2054,44 +2054,44 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>407</v>
+        <v>5500</v>
       </c>
       <c r="H42" t="n">
-        <v>407</v>
+        <v>27500</v>
       </c>
       <c r="I42" t="n">
-        <v>62.5</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="n">
-        <v>25437.5</v>
+        <v>88000</v>
       </c>
       <c r="K42" t="n">
-        <v>25437.5</v>
+        <v>-88000</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-08-02 13:15:00</t>
+          <t>2023-08-02 14:17:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PVRINOX</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PVRINOX31AUG23C1600</t>
+          <t>IBULHSGFIN31AUG23C147.5</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>140497</v>
+        <v>128844</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2099,44 +2099,44 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>407</v>
+        <v>5100</v>
       </c>
       <c r="H43" t="n">
-        <v>407</v>
+        <v>20400</v>
       </c>
       <c r="I43" t="n">
-        <v>68.25</v>
+        <v>6.35</v>
       </c>
       <c r="J43" t="n">
-        <v>27777.75</v>
+        <v>129540</v>
       </c>
       <c r="K43" t="n">
-        <v>-27777.75</v>
+        <v>129540</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023-08-02 13:15:00</t>
+          <t>2023-08-02 15:15:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P93</t>
+          <t>OBEROIRLTY31AUG23C1110</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>136620</v>
+        <v>137808</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2144,19 +2144,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7500</v>
+        <v>700</v>
       </c>
       <c r="H44" t="n">
-        <v>15000</v>
+        <v>2100</v>
       </c>
       <c r="I44" t="n">
-        <v>3.3</v>
+        <v>44.95</v>
       </c>
       <c r="J44" t="n">
-        <v>49500</v>
+        <v>94395</v>
       </c>
       <c r="K44" t="n">
-        <v>-49500</v>
+        <v>-94395</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2167,21 +2167,21 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-08-02 13:15:00</t>
+          <t>2023-08-02 15:15:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>PVRINOX</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P277.5</t>
+          <t>PVRINOX31AUG23C1620</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>128474</v>
+        <v>140499</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2189,19 +2189,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2700</v>
+        <v>407</v>
       </c>
       <c r="H45" t="n">
-        <v>5400</v>
+        <v>1628</v>
       </c>
       <c r="I45" t="n">
-        <v>9.25</v>
+        <v>58</v>
       </c>
       <c r="J45" t="n">
-        <v>49950</v>
+        <v>94424</v>
       </c>
       <c r="K45" t="n">
-        <v>-49950</v>
+        <v>-94424</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2212,21 +2212,21 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-08-02 13:15:00</t>
+          <t>2023-08-02 15:26:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PVRINOX</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PVRINOX31AUG23C1600</t>
+          <t>OBEROIRLTY31AUG23C1110</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>140497</v>
+        <v>137808</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2234,19 +2234,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>407</v>
+        <v>700</v>
       </c>
       <c r="H46" t="n">
-        <v>407</v>
+        <v>2100</v>
       </c>
       <c r="I46" t="n">
-        <v>68.25</v>
+        <v>44.8</v>
       </c>
       <c r="J46" t="n">
-        <v>27777.75</v>
+        <v>94080</v>
       </c>
       <c r="K46" t="n">
-        <v>27777.75</v>
+        <v>94080</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2257,21 +2257,21 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>2023-08-02 14:15:00</t>
+          <t>2023-08-02 15:26:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>PVRINOX</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P92</t>
+          <t>PVRINOX31AUG23C1620</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>136618</v>
+        <v>140499</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2279,44 +2279,44 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>7500</v>
+        <v>407</v>
       </c>
       <c r="H47" t="n">
-        <v>15000</v>
+        <v>1628</v>
       </c>
       <c r="I47" t="n">
-        <v>3.25</v>
+        <v>59</v>
       </c>
       <c r="J47" t="n">
-        <v>48750</v>
+        <v>96052</v>
       </c>
       <c r="K47" t="n">
-        <v>-48750</v>
+        <v>96052</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>2023-08-02 14:15:00</t>
+          <t>2023-08-02 15:26:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TATASTEEL31AUG23P118.4</t>
+          <t>NATIONALUM31AUG23P94</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>144908</v>
+        <v>136622</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2324,44 +2324,44 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="H48" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="I48" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="J48" t="n">
-        <v>35200</v>
+        <v>123000</v>
       </c>
       <c r="K48" t="n">
-        <v>-35200</v>
+        <v>123000</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-08-02 14:15:00</t>
+          <t>2023-08-02 15:26:00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P275</t>
+          <t>NATIONALUM31AUG23P93</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>128472</v>
+        <v>136620</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2369,23 +2369,23 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2700</v>
+        <v>7500</v>
       </c>
       <c r="H49" t="n">
-        <v>2700</v>
+        <v>30000</v>
       </c>
       <c r="I49" t="n">
-        <v>9.300000000000001</v>
+        <v>3.45</v>
       </c>
       <c r="J49" t="n">
-        <v>25110</v>
+        <v>103500</v>
       </c>
       <c r="K49" t="n">
-        <v>-25110</v>
+        <v>103500</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2402,11 +2402,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P93</t>
+          <t>NATIONALUM31AUG23P92</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>136620</v>
+        <v>136618</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         <v>30000</v>
       </c>
       <c r="I50" t="n">
-        <v>3.45</v>
+        <v>2.85</v>
       </c>
       <c r="J50" t="n">
-        <v>103500</v>
+        <v>85500</v>
       </c>
       <c r="K50" t="n">
-        <v>103500</v>
+        <v>85500</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2442,16 +2442,16 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P92</t>
+          <t>TATASTEEL31AUG23P120.4</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>136618</v>
+        <v>144912</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2459,19 +2459,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="H51" t="n">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="I51" t="n">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="J51" t="n">
-        <v>42750</v>
+        <v>206250</v>
       </c>
       <c r="K51" t="n">
-        <v>42750</v>
+        <v>206250</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2492,11 +2492,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TATASTEEL31AUG23P120</t>
+          <t>TATASTEEL31AUG23P118.4</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>84828</v>
+        <v>144908</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2507,16 +2507,16 @@
         <v>5500</v>
       </c>
       <c r="H52" t="n">
-        <v>11000</v>
+        <v>27500</v>
       </c>
       <c r="I52" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="J52" t="n">
-        <v>38500</v>
+        <v>75625</v>
       </c>
       <c r="K52" t="n">
-        <v>38500</v>
+        <v>75625</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2532,16 +2532,16 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TATASTEEL31AUG23P118.4</t>
+          <t>HINDPETRO31AUG23P280</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>144908</v>
+        <v>128476</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2549,19 +2549,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5500</v>
+        <v>2700</v>
       </c>
       <c r="H53" t="n">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="I53" t="n">
-        <v>2.75</v>
+        <v>10.3</v>
       </c>
       <c r="J53" t="n">
-        <v>30250</v>
+        <v>111240</v>
       </c>
       <c r="K53" t="n">
-        <v>30250</v>
+        <v>111240</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2577,16 +2577,16 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P275</t>
+          <t>CIPLA31AUG23P1160</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>128472</v>
+        <v>106398</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2594,19 +2594,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2700</v>
+        <v>650</v>
       </c>
       <c r="H54" t="n">
-        <v>8100</v>
+        <v>3900</v>
       </c>
       <c r="I54" t="n">
-        <v>7.95</v>
+        <v>22.7</v>
       </c>
       <c r="J54" t="n">
-        <v>64395</v>
+        <v>88530</v>
       </c>
       <c r="K54" t="n">
-        <v>64395</v>
+        <v>88530</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2622,16 +2622,16 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P277.5</t>
+          <t>CUMMINSIND31AUG23P1900</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>128474</v>
+        <v>111205</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2639,19 +2639,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="H55" t="n">
-        <v>5400</v>
+        <v>1200</v>
       </c>
       <c r="I55" t="n">
-        <v>9.1</v>
+        <v>64.3</v>
       </c>
       <c r="J55" t="n">
-        <v>49140</v>
+        <v>77160</v>
       </c>
       <c r="K55" t="n">
-        <v>49140</v>
+        <v>77160</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2659,69 +2659,25 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023-08-02 15:26:00</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>CIPLA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>CIPLA31AUG23P1160</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>106398</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>650</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1950</v>
-      </c>
-      <c r="I56" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>44265</v>
-      </c>
-      <c r="K56" t="n">
-        <v>44265</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+    <row r="56"/>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>2023-08-02 15:26:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>IBULHSGFIN</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CUMMINSIND31AUG23P1900</t>
+          <t>IBULHSGFIN31AUG23C150</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>111205</v>
+        <v>128846</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2729,132 +2685,176 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>600</v>
+        <v>5100</v>
       </c>
       <c r="H57" t="n">
-        <v>600</v>
+        <v>10200</v>
       </c>
       <c r="I57" t="n">
-        <v>64.3</v>
+        <v>8.5</v>
       </c>
       <c r="J57" t="n">
-        <v>38580</v>
+        <v>86700</v>
       </c>
       <c r="K57" t="n">
-        <v>38580</v>
+        <v>-86700</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2023-08-02 10:33:00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN31AUG23C150</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>128846</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10200</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>73440</v>
+      </c>
+      <c r="K58" t="n">
+        <v>73440</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="58"/>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023-08-02 09:31:00</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>-13260</v>
+      </c>
+    </row>
+    <row r="60"/>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-08-02 11:15:00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>IBULHSGFIN</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN-EQ</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>30125</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>335</v>
-      </c>
-      <c r="I59" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>49948.5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-49948.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN31AUG23C147.5</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>128844</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10200</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>81600</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-81600</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023-08-02 09:40:00</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2023-08-02 12:15:00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>IBULHSGFIN</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN-EQ</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>30125</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>335</v>
-      </c>
-      <c r="I60" t="n">
-        <v>151.05</v>
-      </c>
-      <c r="J60" t="n">
-        <v>50601.75</v>
-      </c>
-      <c r="K60" t="n">
-        <v>50601.75</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>653.2500000000073</v>
-      </c>
-    </row>
-    <row r="62"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN31AUG23C147.5</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>128844</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10200</v>
+      </c>
+      <c r="I62" t="n">
+        <v>8</v>
+      </c>
+      <c r="J62" t="n">
+        <v>81600</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-81600</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 14:17:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2879,83 +2879,83 @@
         <v>5100</v>
       </c>
       <c r="H63" t="n">
-        <v>5100</v>
+        <v>20400</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>6.35</v>
       </c>
       <c r="J63" t="n">
-        <v>40800</v>
+        <v>129540</v>
       </c>
       <c r="K63" t="n">
-        <v>-40800</v>
+        <v>129540</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>-33660</v>
+      </c>
+    </row>
+    <row r="65"/>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2023-08-02 10:15:00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY31AUG23C1150</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>137816</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>700</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I66" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>92610</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-92610</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023-08-02 12:16:00</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN31AUG23C147.5</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>128844</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>5100</v>
-      </c>
-      <c r="H64" t="n">
-        <v>5100</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>40800</v>
-      </c>
-      <c r="K64" t="n">
-        <v>40800</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66"/>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 10:18:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2965,98 +2965,98 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>OBEROIRLTY-EQ</t>
+          <t>OBEROIRLTY31AUG23C1150</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>20242</v>
+        <v>137816</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="H67" t="n">
-        <v>44</v>
+        <v>2100</v>
       </c>
       <c r="I67" t="n">
-        <v>1113</v>
+        <v>37.95</v>
       </c>
       <c r="J67" t="n">
-        <v>48972</v>
+        <v>79695</v>
       </c>
       <c r="K67" t="n">
-        <v>-48972</v>
+        <v>79695</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>-12915</v>
+      </c>
+    </row>
+    <row r="69"/>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2023-08-02 11:15:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY31AUG23C1110</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>137808</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>700</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I70" t="n">
+        <v>42</v>
+      </c>
+      <c r="J70" t="n">
+        <v>88200</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-88200</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023-08-02 10:00:00</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY-EQ</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>20242</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>44</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1130.8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>49755.2</v>
-      </c>
-      <c r="K68" t="n">
-        <v>49755.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>783.1999999999971</v>
-      </c>
-    </row>
-    <row r="70"/>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 11:31:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3066,11 +3066,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23C1100</t>
+          <t>OBEROIRLTY31AUG23C1110</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>137806</v>
+        <v>137808</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3081,27 +3081,27 @@
         <v>700</v>
       </c>
       <c r="H71" t="n">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="I71" t="n">
-        <v>45.85</v>
+        <v>36.9</v>
       </c>
       <c r="J71" t="n">
-        <v>32095</v>
+        <v>77490</v>
       </c>
       <c r="K71" t="n">
-        <v>-32095</v>
+        <v>77490</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>2023-08-02 12:16:00</t>
+          <t>2023-08-02 15:15:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3111,11 +3111,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23C1100</t>
+          <t>OBEROIRLTY31AUG23C1110</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>137806</v>
+        <v>137808</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3126,184 +3126,184 @@
         <v>700</v>
       </c>
       <c r="H72" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I72" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="J72" t="n">
+        <v>94395</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-94395</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2023-08-02 15:26:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY31AUG23C1110</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>137808</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
         <v>700</v>
       </c>
-      <c r="I72" t="n">
-        <v>45.85</v>
-      </c>
-      <c r="J72" t="n">
-        <v>32095</v>
-      </c>
-      <c r="K72" t="n">
-        <v>32095</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="H73" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I73" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>94080</v>
+      </c>
+      <c r="K73" t="n">
+        <v>94080</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="L73" t="inlineStr">
+    <row r="74">
+      <c r="L74" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74"/>
-    <row r="75">
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023-08-02 09:31:00</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>ESCORTS</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>ESCORTS-EQ</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>958</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>19</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2610.05</v>
-      </c>
-      <c r="J75" t="n">
-        <v>49590.95</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-49590.95</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M74" t="n">
+        <v>-11025</v>
+      </c>
+    </row>
+    <row r="75"/>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>2023-08-02 09:50:00</t>
+          <t>2023-08-02 12:15:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ESCORTS</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ESCORTS-EQ</t>
+          <t>OBEROIRLTY31AUG23C1100</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>958</v>
+        <v>137806</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="H76" t="n">
-        <v>19</v>
+        <v>2100</v>
       </c>
       <c r="I76" t="n">
-        <v>2654.95</v>
+        <v>45.85</v>
       </c>
       <c r="J76" t="n">
-        <v>50444.05</v>
+        <v>96285</v>
       </c>
       <c r="K76" t="n">
-        <v>50444.05</v>
+        <v>-96285</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2023-08-02 13:25:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY31AUG23C1100</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>137806</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>700</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I77" t="n">
+        <v>42.05</v>
+      </c>
+      <c r="J77" t="n">
+        <v>88305</v>
+      </c>
+      <c r="K77" t="n">
+        <v>88305</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="L77" t="inlineStr">
+    <row r="78">
+      <c r="L78" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>853.1000000000058</v>
-      </c>
-    </row>
-    <row r="78"/>
-    <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023-08-02 12:15:00</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ESCORTS</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>ESCORTS31AUG23C2620</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>113750</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>275</v>
-      </c>
-      <c r="H79" t="n">
-        <v>275</v>
-      </c>
-      <c r="I79" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>25162.5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-25162.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M78" t="n">
+        <v>-7980</v>
+      </c>
+    </row>
+    <row r="79"/>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>2023-08-02 12:16:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3313,11 +3313,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ESCORTS31AUG23C2620</t>
+          <t>ESCORTS31AUG23C2660</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>113750</v>
+        <v>113754</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3328,153 +3328,232 @@
         <v>275</v>
       </c>
       <c r="H80" t="n">
+        <v>825</v>
+      </c>
+      <c r="I80" t="n">
+        <v>92.75</v>
+      </c>
+      <c r="J80" t="n">
+        <v>76518.75</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-76518.75</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2023-08-02 10:39:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ESCORTS</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ESCORTS31AUG23C2660</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>113754</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
         <v>275</v>
       </c>
-      <c r="I80" t="n">
-        <v>91</v>
-      </c>
-      <c r="J80" t="n">
-        <v>25025</v>
-      </c>
-      <c r="K80" t="n">
-        <v>25025</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="H81" t="n">
+        <v>825</v>
+      </c>
+      <c r="I81" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="J81" t="n">
+        <v>73507.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>73507.5</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>-137.5</v>
-      </c>
-    </row>
-    <row r="82"/>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2023-08-02 11:15:00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ESCORTS</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ESCORTS31AUG23C2660</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>113754</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>275</v>
+      </c>
+      <c r="H82" t="n">
+        <v>825</v>
+      </c>
+      <c r="I82" t="n">
+        <v>95</v>
+      </c>
+      <c r="J82" t="n">
+        <v>78375</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-78375</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 11:32:00</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PVRINOX</t>
+          <t>ESCORTS</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PVRINOX-EQ</t>
+          <t>ESCORTS31AUG23C2660</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>13147</v>
+        <v>113754</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="H83" t="n">
-        <v>31</v>
+        <v>825</v>
       </c>
       <c r="I83" t="n">
-        <v>1600.25</v>
+        <v>93</v>
       </c>
       <c r="J83" t="n">
-        <v>49607.75</v>
+        <v>76725</v>
       </c>
       <c r="K83" t="n">
-        <v>-49607.75</v>
+        <v>76725</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>-4661.25</v>
+      </c>
+    </row>
+    <row r="85"/>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2023-08-02 12:15:00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ESCORTS</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ESCORTS31AUG23C2620</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>113750</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>275</v>
+      </c>
+      <c r="H86" t="n">
+        <v>825</v>
+      </c>
+      <c r="I86" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>75487.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-75487.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023-08-02 09:40:00</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>PVRINOX</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>PVRINOX-EQ</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>13147</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>31</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1590.75</v>
-      </c>
-      <c r="J84" t="n">
-        <v>49313.25</v>
-      </c>
-      <c r="K84" t="n">
-        <v>49313.25</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>-294.5</v>
-      </c>
-    </row>
-    <row r="86"/>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 12:33:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PVRINOX</t>
+          <t>ESCORTS</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PVRINOX31AUG23C1600</t>
+          <t>ESCORTS31AUG23C2620</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>140497</v>
+        <v>113750</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3482,120 +3561,41 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>407</v>
+        <v>275</v>
       </c>
       <c r="H87" t="n">
-        <v>407</v>
+        <v>825</v>
       </c>
       <c r="I87" t="n">
-        <v>62.5</v>
+        <v>86</v>
       </c>
       <c r="J87" t="n">
-        <v>25437.5</v>
+        <v>70950</v>
       </c>
       <c r="K87" t="n">
-        <v>-25437.5</v>
+        <v>70950</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023-08-02 12:16:00</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>PVRINOX</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>PVRINOX31AUG23C1600</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>140497</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>407</v>
-      </c>
-      <c r="H88" t="n">
-        <v>407</v>
-      </c>
-      <c r="I88" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>25437.5</v>
-      </c>
-      <c r="K88" t="n">
-        <v>25437.5</v>
-      </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023-08-02 13:15:00</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>PVRINOX</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>PVRINOX31AUG23C1600</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>140497</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>407</v>
-      </c>
-      <c r="H89" t="n">
-        <v>407</v>
-      </c>
-      <c r="I89" t="n">
-        <v>68.25</v>
-      </c>
-      <c r="J89" t="n">
-        <v>27777.75</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-27777.75</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>-4537.5</v>
+      </c>
+    </row>
+    <row r="89"/>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>2023-08-02 13:15:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3620,299 +3620,378 @@
         <v>407</v>
       </c>
       <c r="H90" t="n">
+        <v>1628</v>
+      </c>
+      <c r="I90" t="n">
+        <v>58.45</v>
+      </c>
+      <c r="J90" t="n">
+        <v>95156.60000000001</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-95156.60000000001</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2023-08-02 10:21:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PVRINOX</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>PVRINOX31AUG23C1600</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>140497</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
         <v>407</v>
       </c>
-      <c r="I90" t="n">
-        <v>68.25</v>
-      </c>
-      <c r="J90" t="n">
-        <v>27777.75</v>
-      </c>
-      <c r="K90" t="n">
-        <v>27777.75</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="H91" t="n">
+        <v>1628</v>
+      </c>
+      <c r="I91" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="J91" t="n">
+        <v>84411.8</v>
+      </c>
+      <c r="K91" t="n">
+        <v>84411.8</v>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92"/>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2023-08-02 11:15:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PVRINOX</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>PVRINOX31AUG23C1600</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>140497</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>407</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1221</v>
+      </c>
+      <c r="I92" t="n">
+        <v>64</v>
+      </c>
+      <c r="J92" t="n">
+        <v>78144</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-78144</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 11:56:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>INDIACEM</t>
+          <t>PVRINOX</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>INDIACEM-EQ</t>
+          <t>PVRINOX31AUG23C1600</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1515</v>
+        <v>140497</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>407</v>
       </c>
       <c r="H93" t="n">
-        <v>226</v>
+        <v>1221</v>
       </c>
       <c r="I93" t="n">
-        <v>221</v>
+        <v>60.15</v>
       </c>
       <c r="J93" t="n">
-        <v>49946</v>
+        <v>73443.14999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>-49946</v>
+        <v>73443.14999999999</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>2023-08-02 09:40:00</t>
+          <t>2023-08-02 13:15:00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>INDIACEM</t>
+          <t>PVRINOX</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>INDIACEM-EQ</t>
+          <t>PVRINOX31AUG23C1600</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1515</v>
+        <v>140497</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>407</v>
       </c>
       <c r="H94" t="n">
-        <v>226</v>
+        <v>1221</v>
       </c>
       <c r="I94" t="n">
-        <v>223.35</v>
+        <v>68.25</v>
       </c>
       <c r="J94" t="n">
-        <v>50477.1</v>
+        <v>83333.25</v>
       </c>
       <c r="K94" t="n">
-        <v>50477.1</v>
+        <v>-83333.25</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2023-08-02 13:46:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PVRINOX</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PVRINOX31AUG23C1600</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>140497</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>407</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1221</v>
+      </c>
+      <c r="I95" t="n">
+        <v>61.55</v>
+      </c>
+      <c r="J95" t="n">
+        <v>75152.55</v>
+      </c>
+      <c r="K95" t="n">
+        <v>75152.55</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="L95" t="inlineStr">
+    <row r="96">
+      <c r="L96" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>531.0999999999985</v>
-      </c>
-    </row>
-    <row r="96"/>
-    <row r="97">
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023-08-02 09:31:00</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>NATIONALUM</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>NATIONALUM-EQ</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>6364</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>530</v>
-      </c>
-      <c r="I97" t="n">
-        <v>94.25</v>
-      </c>
-      <c r="J97" t="n">
-        <v>49952.5</v>
-      </c>
-      <c r="K97" t="n">
-        <v>49952.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+      <c r="M96" t="n">
+        <v>-23626.35000000001</v>
+      </c>
+    </row>
+    <row r="97"/>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
+          <t>2023-08-02 15:15:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PVRINOX</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>PVRINOX31AUG23C1620</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>140499</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>407</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1628</v>
+      </c>
+      <c r="I98" t="n">
+        <v>58</v>
+      </c>
+      <c r="J98" t="n">
+        <v>94424</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-94424</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
           <t>2023-08-02 15:26:00</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>NATIONALUM</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>NATIONALUM-EQ</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>6364</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>530</v>
-      </c>
-      <c r="I98" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="J98" t="n">
-        <v>48866</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-48866</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PVRINOX</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>PVRINOX31AUG23C1620</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>140499</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>407</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1628</v>
+      </c>
+      <c r="I99" t="n">
+        <v>59</v>
+      </c>
+      <c r="J99" t="n">
+        <v>96052</v>
+      </c>
+      <c r="K99" t="n">
+        <v>96052</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="L100" t="inlineStr">
+        <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1086.5</v>
-      </c>
-    </row>
-    <row r="100"/>
-    <row r="101">
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023-08-02 12:15:00</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>NATIONALUM</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>NATIONALUM31AUG23P93</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>136620</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>7500</v>
-      </c>
-      <c r="H101" t="n">
-        <v>15000</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>45000</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-45000</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M100" t="n">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="101"/>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>2023-08-02 13:15:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>INDIACEM</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P93</t>
+          <t>INDIACEM31AUG23C220</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>136620</v>
+        <v>130332</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3920,19 +3999,19 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>7500</v>
+        <v>2900</v>
       </c>
       <c r="H102" t="n">
-        <v>15000</v>
+        <v>5800</v>
       </c>
       <c r="I102" t="n">
-        <v>3.3</v>
+        <v>12.55</v>
       </c>
       <c r="J102" t="n">
-        <v>49500</v>
+        <v>72790</v>
       </c>
       <c r="K102" t="n">
-        <v>-49500</v>
+        <v>-72790</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -3943,21 +4022,21 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>2023-08-02 15:26:00</t>
+          <t>2023-08-02 10:37:00</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>INDIACEM</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P93</t>
+          <t>INDIACEM31AUG23C220</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>136620</v>
+        <v>130332</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3965,19 +4044,19 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>7500</v>
+        <v>2900</v>
       </c>
       <c r="H103" t="n">
-        <v>30000</v>
+        <v>5800</v>
       </c>
       <c r="I103" t="n">
-        <v>3.45</v>
+        <v>11.2</v>
       </c>
       <c r="J103" t="n">
-        <v>103500</v>
+        <v>64960</v>
       </c>
       <c r="K103" t="n">
-        <v>103500</v>
+        <v>64960</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -3992,14 +4071,14 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>9000</v>
+        <v>-7830.000000000007</v>
       </c>
     </row>
     <row r="105"/>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>2023-08-02 14:15:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4009,11 +4088,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P92</t>
+          <t>NATIONALUM31AUG23P94</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>136618</v>
+        <v>136622</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4024,16 +4103,16 @@
         <v>7500</v>
       </c>
       <c r="H106" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="I106" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J106" t="n">
-        <v>48750</v>
+        <v>96000</v>
       </c>
       <c r="K106" t="n">
-        <v>-48750</v>
+        <v>-96000</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4054,11 +4133,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P92</t>
+          <t>NATIONALUM31AUG23P94</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>136618</v>
+        <v>136622</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4069,16 +4148,16 @@
         <v>7500</v>
       </c>
       <c r="H107" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="I107" t="n">
-        <v>2.85</v>
+        <v>4.1</v>
       </c>
       <c r="J107" t="n">
-        <v>42750</v>
+        <v>123000</v>
       </c>
       <c r="K107" t="n">
-        <v>42750</v>
+        <v>123000</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4093,52 +4172,52 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>-6000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="109"/>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 11:15:00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>TATASTEEL-EQ</t>
+          <t>NATIONALUM31AUG23P93</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3499</v>
+        <v>136620</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>7500</v>
       </c>
       <c r="H110" t="n">
-        <v>415</v>
+        <v>30000</v>
       </c>
       <c r="I110" t="n">
-        <v>120.35</v>
+        <v>3.05</v>
       </c>
       <c r="J110" t="n">
-        <v>49945.25</v>
+        <v>91500</v>
       </c>
       <c r="K110" t="n">
-        <v>49945.25</v>
+        <v>-91500</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4150,40 +4229,40 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>TATASTEEL-EQ</t>
+          <t>NATIONALUM31AUG23P93</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3499</v>
+        <v>136620</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>7500</v>
       </c>
       <c r="H111" t="n">
-        <v>415</v>
+        <v>30000</v>
       </c>
       <c r="I111" t="n">
-        <v>119</v>
+        <v>3.45</v>
       </c>
       <c r="J111" t="n">
-        <v>49385</v>
+        <v>103500</v>
       </c>
       <c r="K111" t="n">
-        <v>-49385</v>
+        <v>103500</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -4194,28 +4273,28 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>560.25</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="113"/>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 14:15:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>TATASTEEL31AUG23P120</t>
+          <t>NATIONALUM31AUG23P92</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>84828</v>
+        <v>136618</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4223,19 +4302,19 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="H114" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="I114" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J114" t="n">
-        <v>35200</v>
+        <v>97500</v>
       </c>
       <c r="K114" t="n">
-        <v>-35200</v>
+        <v>-97500</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4251,16 +4330,16 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>TATASTEEL31AUG23P120</t>
+          <t>NATIONALUM31AUG23P92</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>84828</v>
+        <v>136618</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4268,19 +4347,19 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="H115" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="I115" t="n">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="J115" t="n">
-        <v>38500</v>
+        <v>85500</v>
       </c>
       <c r="K115" t="n">
-        <v>38500</v>
+        <v>85500</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4295,14 +4374,14 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>3300</v>
+        <v>-12000</v>
       </c>
     </row>
     <row r="117"/>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>2023-08-02 14:15:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4312,11 +4391,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>TATASTEEL31AUG23P118.4</t>
+          <t>TATASTEEL31AUG23P120.4</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>144908</v>
+        <v>144912</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4327,16 +4406,16 @@
         <v>5500</v>
       </c>
       <c r="H118" t="n">
-        <v>11000</v>
+        <v>27500</v>
       </c>
       <c r="I118" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J118" t="n">
-        <v>35200</v>
+        <v>85250</v>
       </c>
       <c r="K118" t="n">
-        <v>-35200</v>
+        <v>-85250</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4347,7 +4426,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>2023-08-02 15:26:00</t>
+          <t>2023-08-02 11:15:00</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4357,11 +4436,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>TATASTEEL31AUG23P118.4</t>
+          <t>TATASTEEL31AUG23P120.4</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>144908</v>
+        <v>144912</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4372,184 +4451,184 @@
         <v>5500</v>
       </c>
       <c r="H119" t="n">
-        <v>11000</v>
+        <v>27500</v>
       </c>
       <c r="I119" t="n">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="J119" t="n">
-        <v>30250</v>
+        <v>86625</v>
       </c>
       <c r="K119" t="n">
-        <v>30250</v>
+        <v>-86625</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2023-08-02 15:26:00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>TATASTEEL</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>TATASTEEL31AUG23P120.4</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>144912</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H120" t="n">
+        <v>55000</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J120" t="n">
+        <v>206250</v>
+      </c>
+      <c r="K120" t="n">
+        <v>206250</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="L120" t="inlineStr">
+    <row r="121">
+      <c r="L121" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>-4950</v>
-      </c>
-    </row>
-    <row r="121"/>
-    <row r="122">
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023-08-02 09:31:00</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>HINDPETRO-EQ</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>1406</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" t="n">
-        <v>177</v>
-      </c>
-      <c r="I122" t="n">
-        <v>281.2</v>
-      </c>
-      <c r="J122" t="n">
-        <v>49772.4</v>
-      </c>
-      <c r="K122" t="n">
-        <v>49772.4</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
+      <c r="M121" t="n">
+        <v>34375</v>
+      </c>
+    </row>
+    <row r="122"/>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
+          <t>2023-08-02 14:15:00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>TATASTEEL</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>TATASTEEL31AUG23P118.4</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>144908</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H123" t="n">
+        <v>27500</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>88000</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-88000</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
           <t>2023-08-02 15:26:00</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>HINDPETRO-EQ</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>1406</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>1</v>
-      </c>
-      <c r="H123" t="n">
-        <v>177</v>
-      </c>
-      <c r="I123" t="n">
-        <v>276.35</v>
-      </c>
-      <c r="J123" t="n">
-        <v>48913.95</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-48913.95</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>TATASTEEL</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>TATASTEEL31AUG23P118.4</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>144908</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H124" t="n">
+        <v>27500</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J124" t="n">
+        <v>75625</v>
+      </c>
+      <c r="K124" t="n">
+        <v>75625</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="L125" t="inlineStr">
+        <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>858.4500000000044</v>
-      </c>
-    </row>
-    <row r="125"/>
-    <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023-08-02 12:15:00</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P275</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>128472</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H126" t="n">
-        <v>5400</v>
-      </c>
-      <c r="I126" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J126" t="n">
-        <v>45360</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-45360</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
+      <c r="M125" t="n">
+        <v>-12375</v>
+      </c>
+    </row>
+    <row r="126"/>
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>2023-08-02 14:15:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4559,11 +4638,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P275</t>
+          <t>HINDPETRO31AUG23P280</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>128472</v>
+        <v>128476</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4574,16 +4653,16 @@
         <v>2700</v>
       </c>
       <c r="H127" t="n">
-        <v>2700</v>
+        <v>10800</v>
       </c>
       <c r="I127" t="n">
-        <v>9.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J127" t="n">
-        <v>25110</v>
+        <v>93960</v>
       </c>
       <c r="K127" t="n">
-        <v>-25110</v>
+        <v>-93960</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -4604,11 +4683,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P275</t>
+          <t>HINDPETRO31AUG23P280</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>128472</v>
+        <v>128476</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4619,16 +4698,16 @@
         <v>2700</v>
       </c>
       <c r="H128" t="n">
-        <v>8100</v>
+        <v>10800</v>
       </c>
       <c r="I128" t="n">
-        <v>7.95</v>
+        <v>10.3</v>
       </c>
       <c r="J128" t="n">
-        <v>64395</v>
+        <v>111240</v>
       </c>
       <c r="K128" t="n">
-        <v>64395</v>
+        <v>111240</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -4643,28 +4722,28 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>-6075</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="130"/>
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>2023-08-02 13:15:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P277.5</t>
+          <t>CIPLA31AUG23P1160</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>128474</v>
+        <v>106398</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4672,19 +4751,19 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2700</v>
+        <v>650</v>
       </c>
       <c r="H131" t="n">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="I131" t="n">
-        <v>9.25</v>
+        <v>23.85</v>
       </c>
       <c r="J131" t="n">
-        <v>49950</v>
+        <v>93015</v>
       </c>
       <c r="K131" t="n">
-        <v>-49950</v>
+        <v>-93015</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -4700,16 +4779,16 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P277.5</t>
+          <t>CIPLA31AUG23P1160</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>128474</v>
+        <v>106398</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4717,19 +4796,19 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2700</v>
+        <v>650</v>
       </c>
       <c r="H132" t="n">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="I132" t="n">
-        <v>9.1</v>
+        <v>22.7</v>
       </c>
       <c r="J132" t="n">
-        <v>49140</v>
+        <v>88530</v>
       </c>
       <c r="K132" t="n">
-        <v>49140</v>
+        <v>88530</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -4744,52 +4823,52 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>-810</v>
+        <v>-4485</v>
       </c>
     </row>
     <row r="134"/>
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>2023-08-02 09:31:00</t>
+          <t>2023-08-02 10:15:00</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>CIPLA-EQ</t>
+          <t>CUMMINSIND31AUG23P1900</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>694</v>
+        <v>111205</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="H135" t="n">
-        <v>42</v>
+        <v>1200</v>
       </c>
       <c r="I135" t="n">
-        <v>1165.3</v>
+        <v>63.05</v>
       </c>
       <c r="J135" t="n">
-        <v>48942.6</v>
+        <v>75660</v>
       </c>
       <c r="K135" t="n">
-        <v>48942.6</v>
+        <v>-75660</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4801,40 +4880,40 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>CIPLA-EQ</t>
+          <t>CUMMINSIND31AUG23P1900</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>694</v>
+        <v>111205</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Eq</t>
+          <t>OPTSTK</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="H136" t="n">
-        <v>42</v>
+        <v>1200</v>
       </c>
       <c r="I136" t="n">
-        <v>1170.35</v>
+        <v>64.3</v>
       </c>
       <c r="J136" t="n">
-        <v>49154.7</v>
+        <v>77160</v>
       </c>
       <c r="K136" t="n">
-        <v>-49154.7</v>
+        <v>77160</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -4845,310 +4924,7 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>-212.0999999999985</v>
-      </c>
-    </row>
-    <row r="138"/>
-    <row r="139">
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023-08-02 12:15:00</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>CIPLA</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>CIPLA31AUG23P1160</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>106398</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>650</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1950</v>
-      </c>
-      <c r="I139" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J139" t="n">
-        <v>49725</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-49725</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023-08-02 15:26:00</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>CIPLA</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>CIPLA31AUG23P1160</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>106398</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
-        <v>650</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1950</v>
-      </c>
-      <c r="I140" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J140" t="n">
-        <v>44265</v>
-      </c>
-      <c r="K140" t="n">
-        <v>44265</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>-5460</v>
-      </c>
-    </row>
-    <row r="142"/>
-    <row r="143">
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023-08-02 09:31:00</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>CUMMINSIND-EQ</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>1901</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>1</v>
-      </c>
-      <c r="H143" t="n">
-        <v>26</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1893.65</v>
-      </c>
-      <c r="J143" t="n">
-        <v>49234.9</v>
-      </c>
-      <c r="K143" t="n">
-        <v>49234.9</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023-08-02 15:26:00</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>CUMMINSIND-EQ</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>1901</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Eq</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>1</v>
-      </c>
-      <c r="H144" t="n">
-        <v>26</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1900</v>
-      </c>
-      <c r="J144" t="n">
-        <v>49400</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-49400</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>-165.0999999999985</v>
-      </c>
-    </row>
-    <row r="146"/>
-    <row r="147">
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023-08-02 12:15:00</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>CUMMINSIND31AUG23P1900</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>111205</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>600</v>
-      </c>
-      <c r="H147" t="n">
-        <v>600</v>
-      </c>
-      <c r="I147" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="J147" t="n">
-        <v>38340</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-38340</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023-08-02 15:26:00</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>CUMMINSIND31AUG23P1900</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>111205</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>600</v>
-      </c>
-      <c r="H148" t="n">
-        <v>600</v>
-      </c>
-      <c r="I148" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="J148" t="n">
-        <v>38580</v>
-      </c>
-      <c r="K148" t="n">
-        <v>38580</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>240</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/apidata/momentum/02-08-2023/report_02-08-2023.xlsx
+++ b/apidata/momentum/02-08-2023/report_02-08-2023.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M113"/>
+  <dimension ref="B1:M111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10449.25</v>
+        <v>-24325.75</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10449.25</v>
+        <v>-24325.75</v>
       </c>
     </row>
     <row r="7"/>
@@ -1177,21 +1177,21 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-08-02 12:57:00</t>
+          <t>2023-08-02 12:37:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P93</t>
+          <t>TATASTEEL31AUG23P120</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>136620</v>
+        <v>84828</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1199,19 +1199,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="H23" t="n">
-        <v>30000</v>
+        <v>27500</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="J23" t="n">
-        <v>99000</v>
+        <v>81125</v>
       </c>
       <c r="K23" t="n">
-        <v>99000</v>
+        <v>81125</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1402,21 +1402,21 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-08-02 13:23:00</t>
+          <t>2023-08-02 14:15:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TATASTEEL31AUG23P120</t>
+          <t>NATIONALUM31AUG23P92</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>84828</v>
+        <v>136618</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1424,44 +1424,44 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="H28" t="n">
-        <v>27500</v>
+        <v>30000</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>90750</v>
+        <v>97500</v>
       </c>
       <c r="K28" t="n">
-        <v>90750</v>
+        <v>-97500</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-08-02 13:31:00</t>
+          <t>2023-08-02 14:15:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P275</t>
+          <t>TATASTEEL31AUG23P118.4</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>128472</v>
+        <v>144908</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1469,30 +1469,30 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2700</v>
+        <v>5500</v>
       </c>
       <c r="H29" t="n">
-        <v>10800</v>
+        <v>27500</v>
       </c>
       <c r="I29" t="n">
-        <v>9.15</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
-        <v>98820</v>
+        <v>88000</v>
       </c>
       <c r="K29" t="n">
-        <v>98820</v>
+        <v>-88000</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-08-02 13:34:00</t>
+          <t>2023-08-02 14:15:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1502,11 +1502,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P277.5</t>
+          <t>HINDPETRO31AUG23P275</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>128474</v>
+        <v>128472</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1517,41 +1517,41 @@
         <v>2700</v>
       </c>
       <c r="H30" t="n">
-        <v>10800</v>
+        <v>8100</v>
       </c>
       <c r="I30" t="n">
-        <v>10.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>113400</v>
+        <v>75330</v>
       </c>
       <c r="K30" t="n">
-        <v>113400</v>
+        <v>-75330</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-08-02 13:51:00</t>
+          <t>2023-08-02 14:43:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CIPLA</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CIPLA31AUG23P1160</t>
+          <t>TATASTEEL31AUG23P118.4</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>106398</v>
+        <v>144908</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1559,19 +1559,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>650</v>
+        <v>5500</v>
       </c>
       <c r="H31" t="n">
-        <v>3900</v>
+        <v>27500</v>
       </c>
       <c r="I31" t="n">
-        <v>25.95</v>
+        <v>2.85</v>
       </c>
       <c r="J31" t="n">
-        <v>101205</v>
+        <v>78375</v>
       </c>
       <c r="K31" t="n">
-        <v>101205</v>
+        <v>78375</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1582,21 +1582,21 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-08-02 14:15:00</t>
+          <t>2023-08-02 14:43:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>CIPLA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P92</t>
+          <t>CIPLA31AUG23P1160</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>136618</v>
+        <v>106398</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1604,44 +1604,44 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7500</v>
+        <v>650</v>
       </c>
       <c r="H32" t="n">
-        <v>30000</v>
+        <v>3900</v>
       </c>
       <c r="I32" t="n">
-        <v>3.25</v>
+        <v>25.8</v>
       </c>
       <c r="J32" t="n">
-        <v>97500</v>
+        <v>100620</v>
       </c>
       <c r="K32" t="n">
-        <v>-97500</v>
+        <v>100620</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-08-02 14:15:00</t>
+          <t>2023-08-02 15:01:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TATASTEEL31AUG23P118.4</t>
+          <t>NATIONALUM31AUG23P92</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>144908</v>
+        <v>136618</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1649,44 +1649,44 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="H33" t="n">
-        <v>27500</v>
+        <v>30000</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="J33" t="n">
-        <v>88000</v>
+        <v>85500</v>
       </c>
       <c r="K33" t="n">
-        <v>-88000</v>
+        <v>85500</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-08-02 14:15:00</t>
+          <t>2023-08-02 15:02:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P275</t>
+          <t>NATIONALUM31AUG23P93</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>128472</v>
+        <v>136620</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1694,44 +1694,44 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2700</v>
+        <v>7500</v>
       </c>
       <c r="H34" t="n">
-        <v>8100</v>
+        <v>60000</v>
       </c>
       <c r="I34" t="n">
-        <v>9.300000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="J34" t="n">
-        <v>75330</v>
+        <v>198000</v>
       </c>
       <c r="K34" t="n">
-        <v>-75330</v>
+        <v>198000</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-08-02 15:15:00</t>
+          <t>2023-08-02 15:07:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23C1110</t>
+          <t>HINDPETRO31AUG23P275</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>137808</v>
+        <v>128472</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1739,44 +1739,44 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="H35" t="n">
-        <v>2100</v>
+        <v>18900</v>
       </c>
       <c r="I35" t="n">
-        <v>44.95</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>94395</v>
+        <v>151200</v>
       </c>
       <c r="K35" t="n">
-        <v>-94395</v>
+        <v>151200</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-08-02 15:15:00</t>
+          <t>2023-08-02 15:07:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PVRINOX</t>
+          <t>HINDPETRO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PVRINOX31AUG23C1620</t>
+          <t>HINDPETRO31AUG23P277.5</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>140499</v>
+        <v>128474</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1784,23 +1784,23 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>407</v>
+        <v>2700</v>
       </c>
       <c r="H36" t="n">
-        <v>1628</v>
+        <v>10800</v>
       </c>
       <c r="I36" t="n">
-        <v>58</v>
+        <v>9.5</v>
       </c>
       <c r="J36" t="n">
-        <v>94424</v>
+        <v>102600</v>
       </c>
       <c r="K36" t="n">
-        <v>-94424</v>
+        <v>102600</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1812,16 +1812,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P92</t>
+          <t>OBEROIRLTY31AUG23C1110</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>136618</v>
+        <v>137808</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1829,19 +1829,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7500</v>
+        <v>700</v>
       </c>
       <c r="H37" t="n">
-        <v>30000</v>
+        <v>2100</v>
       </c>
       <c r="I37" t="n">
-        <v>2.75</v>
+        <v>44.95</v>
       </c>
       <c r="J37" t="n">
-        <v>82500</v>
+        <v>94395</v>
       </c>
       <c r="K37" t="n">
-        <v>-82500</v>
+        <v>-94395</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1857,16 +1857,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>PVRINOX</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TATASTEEL31AUG23P119</t>
+          <t>PVRINOX31AUG23C1620</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>84826</v>
+        <v>140499</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1874,19 +1874,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5500</v>
+        <v>407</v>
       </c>
       <c r="H38" t="n">
-        <v>33000</v>
+        <v>1628</v>
       </c>
       <c r="I38" t="n">
-        <v>2.95</v>
+        <v>58</v>
       </c>
       <c r="J38" t="n">
-        <v>97350</v>
+        <v>94424</v>
       </c>
       <c r="K38" t="n">
-        <v>-97350</v>
+        <v>-94424</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1897,21 +1897,21 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-08-02 15:26:00</t>
+          <t>2023-08-02 15:15:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>OBEROIRLTY</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>OBEROIRLTY31AUG23C1110</t>
+          <t>NATIONALUM31AUG23P92</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>137808</v>
+        <v>136618</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1919,44 +1919,44 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>700</v>
+        <v>7500</v>
       </c>
       <c r="H39" t="n">
-        <v>2100</v>
+        <v>30000</v>
       </c>
       <c r="I39" t="n">
-        <v>44.8</v>
+        <v>2.75</v>
       </c>
       <c r="J39" t="n">
-        <v>94080</v>
+        <v>82500</v>
       </c>
       <c r="K39" t="n">
-        <v>94080</v>
+        <v>-82500</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-08-02 15:26:00</t>
+          <t>2023-08-02 15:15:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PVRINOX</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PVRINOX31AUG23C1620</t>
+          <t>TATASTEEL31AUG23P119</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>140499</v>
+        <v>84826</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1964,23 +1964,23 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>407</v>
+        <v>5500</v>
       </c>
       <c r="H40" t="n">
-        <v>1628</v>
+        <v>33000</v>
       </c>
       <c r="I40" t="n">
-        <v>59</v>
+        <v>2.95</v>
       </c>
       <c r="J40" t="n">
-        <v>96052</v>
+        <v>97350</v>
       </c>
       <c r="K40" t="n">
-        <v>96052</v>
+        <v>-97350</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1992,16 +1992,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>OBEROIRLTY</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P93</t>
+          <t>OBEROIRLTY31AUG23C1110</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>136620</v>
+        <v>137808</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>7500</v>
+        <v>700</v>
       </c>
       <c r="H41" t="n">
-        <v>30000</v>
+        <v>2100</v>
       </c>
       <c r="I41" t="n">
-        <v>3.45</v>
+        <v>44.8</v>
       </c>
       <c r="J41" t="n">
-        <v>103500</v>
+        <v>94080</v>
       </c>
       <c r="K41" t="n">
-        <v>103500</v>
+        <v>94080</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2037,16 +2037,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>PVRINOX</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NATIONALUM31AUG23P92</t>
+          <t>PVRINOX31AUG23C1620</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>136618</v>
+        <v>140499</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2054,19 +2054,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7500</v>
+        <v>407</v>
       </c>
       <c r="H42" t="n">
-        <v>60000</v>
+        <v>1628</v>
       </c>
       <c r="I42" t="n">
-        <v>2.85</v>
+        <v>59</v>
       </c>
       <c r="J42" t="n">
-        <v>171000</v>
+        <v>96052</v>
       </c>
       <c r="K42" t="n">
-        <v>171000</v>
+        <v>96052</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2082,16 +2082,16 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TATASTEEL31AUG23P118.4</t>
+          <t>NATIONALUM31AUG23P92</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>144908</v>
+        <v>136618</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2099,19 +2099,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="H43" t="n">
-        <v>27500</v>
+        <v>30000</v>
       </c>
       <c r="I43" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="J43" t="n">
-        <v>75625</v>
+        <v>85500</v>
       </c>
       <c r="K43" t="n">
-        <v>75625</v>
+        <v>85500</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2172,16 +2172,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HINDPETRO</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HINDPETRO31AUG23P275</t>
+          <t>CUMMINSIND31AUG23P1900</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>128472</v>
+        <v>111205</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2189,19 +2189,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="H45" t="n">
-        <v>8100</v>
+        <v>1200</v>
       </c>
       <c r="I45" t="n">
-        <v>7.95</v>
+        <v>64.3</v>
       </c>
       <c r="J45" t="n">
-        <v>64395</v>
+        <v>77160</v>
       </c>
       <c r="K45" t="n">
-        <v>64395</v>
+        <v>77160</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2209,56 +2209,56 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2023-08-02 15:26:00</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>CUMMINSIND31AUG23P1900</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>111205</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>600</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I46" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>77160</v>
-      </c>
-      <c r="K46" t="n">
-        <v>77160</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="47"/>
+    <row r="46"/>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2023-08-02 12:15:00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>IBULHSGFIN31AUG23C147.5</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>128844</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10200</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>81600</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-81600</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 12:16:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2292,74 +2292,74 @@
         <v>81600</v>
       </c>
       <c r="K48" t="n">
-        <v>-81600</v>
+        <v>81600</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50"/>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2023-08-02 12:15:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY31AUG23C1100</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>137806</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>700</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I51" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="J51" t="n">
+        <v>96285</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-96285</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2023-08-02 12:16:00</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>IBULHSGFIN31AUG23C147.5</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>128844</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>5100</v>
-      </c>
-      <c r="H49" t="n">
-        <v>10200</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>81600</v>
-      </c>
-      <c r="K49" t="n">
-        <v>81600</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51"/>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 12:16:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2393,74 +2393,74 @@
         <v>96285</v>
       </c>
       <c r="K52" t="n">
-        <v>-96285</v>
+        <v>96285</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54"/>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2023-08-02 15:15:00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>OBEROIRLTY31AUG23C1110</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>137808</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>700</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I55" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="J55" t="n">
+        <v>94395</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-94395</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023-08-02 12:16:00</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY31AUG23C1100</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>137806</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>700</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2100</v>
-      </c>
-      <c r="I53" t="n">
-        <v>45.85</v>
-      </c>
-      <c r="J53" t="n">
-        <v>96285</v>
-      </c>
-      <c r="K53" t="n">
-        <v>96285</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55"/>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>2023-08-02 15:15:00</t>
+          <t>2023-08-02 15:26:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2488,80 +2488,80 @@
         <v>2100</v>
       </c>
       <c r="I56" t="n">
-        <v>44.95</v>
+        <v>44.8</v>
       </c>
       <c r="J56" t="n">
-        <v>94395</v>
+        <v>94080</v>
       </c>
       <c r="K56" t="n">
-        <v>-94395</v>
+        <v>94080</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>-315</v>
+      </c>
+    </row>
+    <row r="58"/>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2023-08-02 12:15:00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ESCORTS</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ESCORTS31AUG23C2620</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>113750</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>275</v>
+      </c>
+      <c r="H59" t="n">
+        <v>825</v>
+      </c>
+      <c r="I59" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>75487.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-75487.5</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023-08-02 15:26:00</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>OBEROIRLTY31AUG23C1110</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>137808</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>700</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2100</v>
-      </c>
-      <c r="I57" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>94080</v>
-      </c>
-      <c r="K57" t="n">
-        <v>94080</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>-315</v>
-      </c>
-    </row>
-    <row r="59"/>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 12:16:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2589,80 +2589,80 @@
         <v>825</v>
       </c>
       <c r="I60" t="n">
-        <v>91.5</v>
+        <v>91</v>
       </c>
       <c r="J60" t="n">
-        <v>75487.5</v>
+        <v>75075</v>
       </c>
       <c r="K60" t="n">
-        <v>-75487.5</v>
+        <v>75075</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>-412.5</v>
+      </c>
+    </row>
+    <row r="62"/>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2023-08-02 12:15:00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PVRINOX</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PVRINOX31AUG23C1600</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>140497</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>407</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1221</v>
+      </c>
+      <c r="I63" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>76312.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-76312.5</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023-08-02 12:16:00</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>ESCORTS</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>ESCORTS31AUG23C2620</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>113750</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>275</v>
-      </c>
-      <c r="H61" t="n">
-        <v>825</v>
-      </c>
-      <c r="I61" t="n">
-        <v>91</v>
-      </c>
-      <c r="J61" t="n">
-        <v>75075</v>
-      </c>
-      <c r="K61" t="n">
-        <v>75075</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>-412.5</v>
-      </c>
-    </row>
-    <row r="63"/>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 12:16:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2696,18 +2696,18 @@
         <v>76312.5</v>
       </c>
       <c r="K64" t="n">
-        <v>-76312.5</v>
+        <v>76312.5</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>2023-08-02 12:16:00</t>
+          <t>2023-08-02 13:15:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2735,24 +2735,24 @@
         <v>1221</v>
       </c>
       <c r="I65" t="n">
-        <v>62.5</v>
+        <v>68.25</v>
       </c>
       <c r="J65" t="n">
-        <v>76312.5</v>
+        <v>83333.25</v>
       </c>
       <c r="K65" t="n">
-        <v>76312.5</v>
+        <v>-83333.25</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>2023-08-02 13:15:00</t>
+          <t>2023-08-02 13:16:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2780,80 +2780,80 @@
         <v>1221</v>
       </c>
       <c r="I66" t="n">
-        <v>68.25</v>
+        <v>67</v>
       </c>
       <c r="J66" t="n">
-        <v>83333.25</v>
+        <v>81807</v>
       </c>
       <c r="K66" t="n">
-        <v>-83333.25</v>
+        <v>81807</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>-1526.25</v>
+      </c>
+    </row>
+    <row r="68"/>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2023-08-02 15:15:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PVRINOX</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PVRINOX31AUG23C1620</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>140499</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>407</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1628</v>
+      </c>
+      <c r="I69" t="n">
+        <v>58</v>
+      </c>
+      <c r="J69" t="n">
+        <v>94424</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-94424</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023-08-02 13:16:00</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>PVRINOX</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>PVRINOX31AUG23C1600</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>140497</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>407</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1221</v>
-      </c>
-      <c r="I67" t="n">
-        <v>67</v>
-      </c>
-      <c r="J67" t="n">
-        <v>81807</v>
-      </c>
-      <c r="K67" t="n">
-        <v>81807</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>-1526.25</v>
-      </c>
-    </row>
-    <row r="69"/>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>2023-08-02 15:15:00</t>
+          <t>2023-08-02 15:26:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2881,80 +2881,80 @@
         <v>1628</v>
       </c>
       <c r="I70" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J70" t="n">
-        <v>94424</v>
+        <v>96052</v>
       </c>
       <c r="K70" t="n">
-        <v>-94424</v>
+        <v>96052</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="72"/>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2023-08-02 12:15:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NATIONALUM</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NATIONALUM31AUG23P93</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>136620</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H73" t="n">
+        <v>30000</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>90000</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-90000</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023-08-02 15:26:00</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>PVRINOX</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>PVRINOX31AUG23C1620</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>140499</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>407</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1628</v>
-      </c>
-      <c r="I71" t="n">
-        <v>59</v>
-      </c>
-      <c r="J71" t="n">
-        <v>96052</v>
-      </c>
-      <c r="K71" t="n">
-        <v>96052</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="73"/>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 13:15:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2982,13 +2982,13 @@
         <v>30000</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J74" t="n">
-        <v>90000</v>
+        <v>99000</v>
       </c>
       <c r="K74" t="n">
-        <v>-90000</v>
+        <v>-99000</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>2023-08-02 12:57:00</t>
+          <t>2023-08-02 15:02:00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3024,16 +3024,16 @@
         <v>7500</v>
       </c>
       <c r="H75" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="I75" t="n">
         <v>3.3</v>
       </c>
       <c r="J75" t="n">
-        <v>99000</v>
+        <v>198000</v>
       </c>
       <c r="K75" t="n">
-        <v>99000</v>
+        <v>198000</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3042,110 +3042,110 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023-08-02 13:15:00</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="77"/>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2023-08-02 14:15:00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>NATIONALUM</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>NATIONALUM31AUG23P93</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>136620</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NATIONALUM31AUG23P92</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>136618</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
         <v>7500</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H78" t="n">
         <v>30000</v>
       </c>
-      <c r="I76" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>99000</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-99000</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="I78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J78" t="n">
+        <v>97500</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-97500</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023-08-02 15:26:00</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2023-08-02 15:01:00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>NATIONALUM</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>NATIONALUM31AUG23P93</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>136620</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>NATIONALUM31AUG23P92</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>136618</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
         <v>7500</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H79" t="n">
         <v>30000</v>
       </c>
-      <c r="I77" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J77" t="n">
-        <v>103500</v>
-      </c>
-      <c r="K77" t="n">
-        <v>103500</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="I79" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J79" t="n">
+        <v>85500</v>
+      </c>
+      <c r="K79" t="n">
+        <v>85500</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="79"/>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>2023-08-02 14:15:00</t>
+          <t>2023-08-02 15:15:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3173,13 +3173,13 @@
         <v>30000</v>
       </c>
       <c r="I80" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="J80" t="n">
-        <v>97500</v>
+        <v>82500</v>
       </c>
       <c r="K80" t="n">
-        <v>-97500</v>
+        <v>-82500</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>2023-08-02 15:15:00</t>
+          <t>2023-08-02 15:26:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3218,80 +3218,80 @@
         <v>30000</v>
       </c>
       <c r="I81" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="J81" t="n">
-        <v>82500</v>
+        <v>85500</v>
       </c>
       <c r="K81" t="n">
-        <v>-82500</v>
+        <v>85500</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="83"/>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2023-08-02 12:15:00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>TATASTEEL</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>TATASTEEL31AUG23P120</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>84828</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H84" t="n">
+        <v>27500</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>88000</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-88000</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023-08-02 15:26:00</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>NATIONALUM</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>NATIONALUM31AUG23P92</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>136618</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>7500</v>
-      </c>
-      <c r="H82" t="n">
-        <v>60000</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J82" t="n">
-        <v>171000</v>
-      </c>
-      <c r="K82" t="n">
-        <v>171000</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>-9000</v>
-      </c>
-    </row>
-    <row r="84"/>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 12:37:00</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3319,80 +3319,80 @@
         <v>27500</v>
       </c>
       <c r="I85" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J85" t="n">
+        <v>81125</v>
+      </c>
+      <c r="K85" t="n">
+        <v>81125</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>-6875</v>
+      </c>
+    </row>
+    <row r="87"/>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2023-08-02 14:15:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>TATASTEEL</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TATASTEEL31AUG23P118.4</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>144908</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H88" t="n">
+        <v>27500</v>
+      </c>
+      <c r="I88" t="n">
         <v>3.2</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J88" t="n">
         <v>88000</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K88" t="n">
         <v>-88000</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023-08-02 13:23:00</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>TATASTEEL</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>TATASTEEL31AUG23P120</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>84828</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>5500</v>
-      </c>
-      <c r="H86" t="n">
-        <v>27500</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>90750</v>
-      </c>
-      <c r="K86" t="n">
-        <v>90750</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="88"/>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>2023-08-02 14:15:00</t>
+          <t>2023-08-02 14:43:00</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3420,80 +3420,80 @@
         <v>27500</v>
       </c>
       <c r="I89" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="J89" t="n">
-        <v>88000</v>
+        <v>78375</v>
       </c>
       <c r="K89" t="n">
-        <v>-88000</v>
+        <v>78375</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>-9625</v>
+      </c>
+    </row>
+    <row r="91"/>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2023-08-02 15:15:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>TATASTEEL</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>TATASTEEL31AUG23P119</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>84826</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H92" t="n">
+        <v>33000</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J92" t="n">
+        <v>97350</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-97350</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023-08-02 15:26:00</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>TATASTEEL</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>TATASTEEL31AUG23P118.4</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>144908</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>5500</v>
-      </c>
-      <c r="H90" t="n">
-        <v>27500</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J90" t="n">
-        <v>75625</v>
-      </c>
-      <c r="K90" t="n">
-        <v>75625</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>-12375</v>
-      </c>
-    </row>
-    <row r="92"/>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>2023-08-02 15:15:00</t>
+          <t>2023-08-02 15:26:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3521,80 +3521,80 @@
         <v>33000</v>
       </c>
       <c r="I93" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="J93" t="n">
-        <v>97350</v>
+        <v>100650</v>
       </c>
       <c r="K93" t="n">
-        <v>-97350</v>
+        <v>100650</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="95"/>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2023-08-02 12:15:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P275</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>128472</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H96" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I96" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>90720</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-90720</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023-08-02 15:26:00</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>TATASTEEL</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>TATASTEEL31AUG23P119</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>84826</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>5500</v>
-      </c>
-      <c r="H94" t="n">
-        <v>33000</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J94" t="n">
-        <v>100650</v>
-      </c>
-      <c r="K94" t="n">
-        <v>100650</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="96"/>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>2023-08-02 12:15:00</t>
+          <t>2023-08-02 14:15:00</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3619,16 +3619,16 @@
         <v>2700</v>
       </c>
       <c r="H97" t="n">
-        <v>10800</v>
+        <v>8100</v>
       </c>
       <c r="I97" t="n">
-        <v>8.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J97" t="n">
-        <v>90720</v>
+        <v>75330</v>
       </c>
       <c r="K97" t="n">
-        <v>-90720</v>
+        <v>-75330</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>2023-08-02 13:31:00</t>
+          <t>2023-08-02 15:07:00</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3664,423 +3664,333 @@
         <v>2700</v>
       </c>
       <c r="H98" t="n">
+        <v>18900</v>
+      </c>
+      <c r="I98" t="n">
+        <v>8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>151200</v>
+      </c>
+      <c r="K98" t="n">
+        <v>151200</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>-14850</v>
+      </c>
+    </row>
+    <row r="100"/>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2023-08-02 13:15:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P277.5</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>128474</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H101" t="n">
         <v>10800</v>
       </c>
-      <c r="I98" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>98820</v>
-      </c>
-      <c r="K98" t="n">
-        <v>98820</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="I101" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J101" t="n">
+        <v>99900</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-99900</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2023-08-02 15:07:00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>HINDPETRO</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>HINDPETRO31AUG23P277.5</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>128474</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2700</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10800</v>
+      </c>
+      <c r="I102" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J102" t="n">
+        <v>102600</v>
+      </c>
+      <c r="K102" t="n">
+        <v>102600</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023-08-02 14:15:00</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P275</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>128472</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
+    <row r="103">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>2700</v>
       </c>
-      <c r="H99" t="n">
-        <v>8100</v>
-      </c>
-      <c r="I99" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J99" t="n">
-        <v>75330</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-75330</v>
-      </c>
-      <c r="L99" t="inlineStr">
+    </row>
+    <row r="104"/>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2023-08-02 12:15:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CIPLA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>CIPLA31AUG23P1160</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>106398</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>650</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I105" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J105" t="n">
+        <v>99450</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-99450</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="B100" t="inlineStr">
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2023-08-02 14:43:00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CIPLA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>CIPLA31AUG23P1160</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>106398</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>650</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I106" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J106" t="n">
+        <v>100620</v>
+      </c>
+      <c r="K106" t="n">
+        <v>100620</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Profit :</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="108"/>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2023-08-02 12:15:00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>CUMMINSIND31AUG23P1900</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>111205</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>600</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I109" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="J109" t="n">
+        <v>76680</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-76680</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
         <is>
           <t>2023-08-02 15:26:00</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P275</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>128472</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8100</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="J100" t="n">
-        <v>64395</v>
-      </c>
-      <c r="K100" t="n">
-        <v>64395</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CUMMINSIND</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>CUMMINSIND31AUG23P1900</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>111205</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>OPTSTK</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>600</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I110" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>77160</v>
+      </c>
+      <c r="K110" t="n">
+        <v>77160</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="L101" t="inlineStr">
+    <row r="111">
+      <c r="L111" t="inlineStr">
         <is>
           <t>Profit :</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>-2835</v>
-      </c>
-    </row>
-    <row r="102"/>
-    <row r="103">
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023-08-02 13:15:00</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P277.5</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>128474</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H103" t="n">
-        <v>10800</v>
-      </c>
-      <c r="I103" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J103" t="n">
-        <v>99900</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-99900</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023-08-02 13:34:00</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>HINDPETRO</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>HINDPETRO31AUG23P277.5</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>128474</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>2700</v>
-      </c>
-      <c r="H104" t="n">
-        <v>10800</v>
-      </c>
-      <c r="I104" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>113400</v>
-      </c>
-      <c r="K104" t="n">
-        <v>113400</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="106"/>
-    <row r="107">
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023-08-02 12:15:00</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>CIPLA</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>CIPLA31AUG23P1160</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>106398</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>650</v>
-      </c>
-      <c r="H107" t="n">
-        <v>3900</v>
-      </c>
-      <c r="I107" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>99450</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-99450</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023-08-02 13:51:00</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>CIPLA</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>CIPLA31AUG23P1160</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>106398</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>650</v>
-      </c>
-      <c r="H108" t="n">
-        <v>3900</v>
-      </c>
-      <c r="I108" t="n">
-        <v>25.95</v>
-      </c>
-      <c r="J108" t="n">
-        <v>101205</v>
-      </c>
-      <c r="K108" t="n">
-        <v>101205</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="110"/>
-    <row r="111">
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023-08-02 12:15:00</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>CUMMINSIND31AUG23P1900</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>111205</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>600</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I111" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="J111" t="n">
-        <v>76680</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-76680</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023-08-02 15:26:00</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>CUMMINSIND</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>CUMMINSIND31AUG23P1900</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>111205</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>OPTSTK</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>600</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I112" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>77160</v>
-      </c>
-      <c r="K112" t="n">
-        <v>77160</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="M111" t="n">
         <v>480</v>
       </c>
     </row>
